--- a/見積書.xlsx
+++ b/見積書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mason Wang\Desktop\CLPS_20240402\営業関連\CLPS→御客先御見積書\AON\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a1044\IdeaProjects\demo2024530\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC19D15-6A71-48F4-9476-7CB61300FB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D43BF44-1C3C-4843-9764-E03FA76554AA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1770" yWindow="1890" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="見積書" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">見積書!$A$1:$I$37</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,10 +26,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>作業内容</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -97,7 +93,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="新細明體"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -107,7 +103,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="新細明體"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -144,7 +140,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="新細明體"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -163,7 +159,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="新細明體"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -182,7 +178,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="新細明體"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -196,89 +192,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>余</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CH</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>余  CH</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ヘルプデスク</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2024年06月01日</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>～2024年08月31日</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2024年09月01日</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>～2024年11月30日</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>見積税込み合計（円）：</t>
     <rPh sb="2" eb="5">
       <t>ゼイコ</t>
@@ -304,19 +217,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
-    <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
-    <numFmt numFmtId="177" formatCode="#,##0_);[Red]\(#,##0\)"/>
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -324,14 +234,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="游ゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -344,14 +254,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="游ゴシック"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -371,7 +281,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -379,7 +289,7 @@
     <font>
       <b/>
       <sz val="16"/>
-      <name val="游ゴシック"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -400,7 +310,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="游ゴシック"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -408,25 +318,10 @@
     <font>
       <b/>
       <sz val="14"/>
-      <name val="游ゴシック"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9"/>
-      <color rgb="FF0070C0"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Microsoft YaHei"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="12"/>
@@ -449,7 +344,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -525,52 +420,25 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -592,10 +460,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -626,15 +494,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="5" fontId="5" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -645,13 +504,13 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -660,11 +519,11 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -681,18 +540,11 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
-    <cellStyle name="桁区切り [0.00]" xfId="3" builtinId="3"/>
-    <cellStyle name="通貨" xfId="2" builtinId="7"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="千分位[0]" xfId="1" builtinId="6"/>
+    <cellStyle name="貨幣 [0]" xfId="2" builtinId="7"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -718,7 +570,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1212397</xdr:colOff>
+      <xdr:colOff>1193347</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>30390</xdr:rowOff>
     </xdr:to>
@@ -1043,35 +895,35 @@
   </sheetPr>
   <dimension ref="B4:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="7.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.9140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.08203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="7.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8" ht="35">
-      <c r="B4" s="33" t="s">
+    <row r="4" spans="2:8" ht="35.25">
+      <c r="B4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="29"/>
-    </row>
-    <row r="5" spans="2:8" ht="35">
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="26"/>
+    </row>
+    <row r="5" spans="2:8" ht="35.25">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
@@ -1079,12 +931,12 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="2:8" s="9" customFormat="1" ht="26.5">
+    <row r="6" spans="2:8" s="9" customFormat="1" ht="21">
       <c r="B6" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="18"/>
-      <c r="D6" s="30"/>
+      <c r="D6" s="27"/>
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="2:8" s="9" customFormat="1">
@@ -1095,12 +947,12 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="2:8" s="9" customFormat="1">
+    <row r="8" spans="2:8" s="9" customFormat="1" ht="17.25">
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="10"/>
       <c r="E8" s="13"/>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="19" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="10"/>
@@ -1197,19 +1049,19 @@
       <c r="F19" s="14"/>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="2:8" s="9" customFormat="1" ht="22.5">
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
+    <row r="20" spans="2:8" s="9" customFormat="1" ht="19.5">
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="14"/>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="2:8" s="9" customFormat="1" ht="22.5">
-      <c r="B21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="28">
+    <row r="21" spans="2:8" s="9" customFormat="1" ht="19.5">
+      <c r="B21" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="25">
         <f>H33</f>
         <v>0</v>
       </c>
@@ -1227,7 +1079,7 @@
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="2:8" s="9" customFormat="1">
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="15" t="s">
@@ -1249,130 +1101,108 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:8" s="9" customFormat="1" ht="35" customHeight="1">
-      <c r="B24" s="38" t="s">
+    <row r="24" spans="2:8" s="9" customFormat="1" ht="35.1" customHeight="1">
+      <c r="B24" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="20">
-        <v>3</v>
-      </c>
-      <c r="H24" s="8">
-        <f t="shared" ref="H24:H25" si="0">F24*G24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" s="9" customFormat="1" ht="35" customHeight="1">
-      <c r="B25" s="39"/>
-      <c r="C25" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="20">
-        <v>3</v>
-      </c>
-      <c r="H25" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" s="9" customFormat="1" ht="35" customHeight="1">
-      <c r="B26" s="39"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+    </row>
+    <row r="25" spans="2:8" s="9" customFormat="1" ht="35.1" customHeight="1">
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+    </row>
+    <row r="26" spans="2:8" s="9" customFormat="1" ht="35.1" customHeight="1">
+      <c r="B26" s="24"/>
       <c r="C26" s="24"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="2:8" s="9" customFormat="1" ht="35" customHeight="1">
-      <c r="B27" s="39"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+    </row>
+    <row r="27" spans="2:8" s="9" customFormat="1" ht="35.1" customHeight="1">
+      <c r="B27" s="24"/>
       <c r="C27" s="24"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="8"/>
-    </row>
-    <row r="28" spans="2:8" s="9" customFormat="1" ht="35" customHeight="1">
-      <c r="B28" s="39"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+    </row>
+    <row r="28" spans="2:8" s="9" customFormat="1" ht="35.1" customHeight="1">
+      <c r="B28" s="24"/>
       <c r="C28" s="24"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="2:8" s="9" customFormat="1" ht="35" customHeight="1">
-      <c r="B29" s="39"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+    </row>
+    <row r="29" spans="2:8" s="9" customFormat="1" ht="35.1" customHeight="1">
+      <c r="B29" s="24"/>
       <c r="C29" s="24"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="8"/>
-    </row>
-    <row r="30" spans="2:8" s="9" customFormat="1" ht="35" customHeight="1">
-      <c r="B30" s="32"/>
-      <c r="C30" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+    </row>
+    <row r="30" spans="2:8" s="9" customFormat="1" ht="35.1" customHeight="1">
+      <c r="B30" s="28"/>
+      <c r="C30" s="21"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="6"/>
       <c r="G30" s="7"/>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="2:8" s="9" customFormat="1" ht="35" customHeight="1">
-      <c r="B31" s="35" t="s">
+    <row r="31" spans="2:8" s="9" customFormat="1" ht="35.1" customHeight="1">
+      <c r="B31" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="37"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="34"/>
       <c r="H31" s="8">
         <f>SUM(H24:H30)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:8" s="9" customFormat="1" ht="35" customHeight="1">
-      <c r="B32" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="37"/>
+    <row r="32" spans="2:8" s="9" customFormat="1" ht="35.1" customHeight="1">
+      <c r="B32" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="34"/>
       <c r="H32" s="8">
         <f>H31*0.1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:8" s="9" customFormat="1" ht="35" customHeight="1">
-      <c r="B33" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="37"/>
+    <row r="33" spans="2:8" s="9" customFormat="1" ht="35.1" customHeight="1">
+      <c r="B33" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="34"/>
       <c r="H33" s="8">
         <f>SUM(H31:H32)</f>
         <v>0</v>
@@ -1388,10 +1218,9 @@
       <c r="H34" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B24:B29"/>
     <mergeCell ref="B32:G32"/>
     <mergeCell ref="B33:G33"/>
   </mergeCells>
